--- a/files/sehassur_devis.xlsx
+++ b/files/sehassur_devis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/othmanbensouda/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/othmanbensouda/PycharmProjects/Agecap Automatic Forms/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD30E08-B66C-7448-83C4-93C42D976197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A1046-BE53-4345-BB7F-A2384E39791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="primes" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _D_H_-;\-* #,##0.00\ _D_H_-;_-* &quot;-&quot;??\ _D_H_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,44 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,14 +251,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,20 +263,30 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K11"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,401 +585,842 @@
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="26">
         <v>702.65</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="25">
         <v>790.05</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="25">
         <v>833.75</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="27">
         <v>1023.5</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="25">
         <v>1241.1500000000001</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="25">
         <v>1215.55</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="28">
         <v>1092.5</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="25">
         <v>1228.8</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="25">
         <v>1297.2</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="17">
         <v>481.85</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="18">
         <v>542.98</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="18">
         <v>572.20000000000005</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="19">
         <v>703.01</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="18">
         <v>790.05</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="18">
         <v>833.75</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="20">
         <v>750</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="18">
         <v>844</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="18">
         <v>890</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
-        <v>1877.9500000000003</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2104.5000000000005</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2217.2000000000003</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="B4" s="17">
+        <v>1877.95</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2104.5</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2217.1999999999998</v>
+      </c>
+      <c r="E4" s="19">
         <v>2618.5500000000002</v>
       </c>
-      <c r="F4" s="11">
-        <v>2931.3500000000004</v>
-      </c>
-      <c r="G4" s="11">
-        <v>3087.7500000000005</v>
-      </c>
-      <c r="H4" s="13">
-        <v>2967.0000000000005</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="F4" s="18">
+        <v>2931.35</v>
+      </c>
+      <c r="G4" s="18">
+        <v>3087.75</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2967</v>
+      </c>
+      <c r="I4" s="18">
         <v>3314.3</v>
       </c>
-      <c r="J4" s="11">
-        <v>3487.9500000000003</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="J4" s="18">
+        <v>3487.95</v>
+      </c>
+      <c r="K4" s="8">
         <v>137.39999999999964</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
-        <v>1877.9500000000003</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2104.5000000000005</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2217.2000000000003</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="B5" s="17">
+        <v>1877.95</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2104.5</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2217.1999999999998</v>
+      </c>
+      <c r="E5" s="19">
         <v>2618.5500000000002</v>
       </c>
-      <c r="F5" s="11">
-        <v>2931.3500000000004</v>
-      </c>
-      <c r="G5" s="11">
-        <v>3087.7500000000005</v>
-      </c>
-      <c r="H5" s="13">
-        <v>2967.0000000000005</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="F5" s="18">
+        <v>2931.35</v>
+      </c>
+      <c r="G5" s="18">
+        <v>3087.75</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2967</v>
+      </c>
+      <c r="I5" s="18">
         <v>3314.3</v>
       </c>
-      <c r="J5" s="11">
-        <v>3487.9500000000003</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="J5" s="18">
+        <v>3487.95</v>
+      </c>
+      <c r="K5" s="8">
         <v>144.39999999999964</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10">
-        <v>2151.6499999999996</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2410.3999999999996</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2540.3499999999995</v>
-      </c>
-      <c r="E6" s="12">
-        <v>3000.3499999999995</v>
-      </c>
-      <c r="F6" s="11">
-        <v>3359.1499999999996</v>
-      </c>
-      <c r="G6" s="11">
-        <v>3537.3999999999996</v>
-      </c>
-      <c r="H6" s="13">
-        <v>3399.3999999999996</v>
-      </c>
-      <c r="I6" s="11">
-        <v>3797.2999999999993</v>
-      </c>
-      <c r="J6" s="11">
-        <v>3996.2499999999991</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="B6" s="17">
+        <v>2151.65</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2410.4</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2540.35</v>
+      </c>
+      <c r="E6" s="19">
+        <v>3000.35</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3359.15</v>
+      </c>
+      <c r="G6" s="18">
+        <v>3537.4</v>
+      </c>
+      <c r="H6" s="20">
+        <v>3399.4</v>
+      </c>
+      <c r="I6" s="18">
+        <v>3797.3</v>
+      </c>
+      <c r="J6" s="18">
+        <v>3996.25</v>
+      </c>
+      <c r="K6" s="8">
         <v>149.40000000000055</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10">
-        <v>2151.1999999999998</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2409.5</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2539.4499999999998</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2999.45</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3358.25</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3536.5</v>
-      </c>
-      <c r="H7" s="13">
-        <v>3398.5</v>
-      </c>
-      <c r="I7" s="11">
-        <v>3796.3999999999996</v>
-      </c>
-      <c r="J7" s="11">
-        <v>3995.3499999999995</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="B7" s="17">
+        <v>2151.65</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2410.4</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2540.35</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3000.35</v>
+      </c>
+      <c r="F7" s="18">
+        <v>3359.15</v>
+      </c>
+      <c r="G7" s="18">
+        <v>3537.4</v>
+      </c>
+      <c r="H7" s="20">
+        <v>3399.4</v>
+      </c>
+      <c r="I7" s="18">
+        <v>3797.3</v>
+      </c>
+      <c r="J7" s="18">
+        <v>3996.25</v>
+      </c>
+      <c r="K7" s="8">
         <v>184.30000000000018</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="17">
         <v>2411.5500000000002</v>
       </c>
-      <c r="C8" s="11">
-        <v>2701.3500000000004</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2846.2500000000005</v>
-      </c>
-      <c r="E8" s="12">
-        <v>3362.6000000000004</v>
-      </c>
-      <c r="F8" s="11">
-        <v>3763.9500000000003</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="C8" s="18">
+        <v>2701.35</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2846.25</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3362.6</v>
+      </c>
+      <c r="F8" s="18">
+        <v>3763.95</v>
+      </c>
+      <c r="G8" s="18">
         <v>3964.05</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="20">
         <v>3808.8</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="18">
         <v>4255</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="18">
         <v>4478.1000000000004</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="8">
         <v>241.39999999999964</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="17">
         <v>2411.5500000000002</v>
       </c>
-      <c r="C9" s="11">
-        <v>2701.3500000000004</v>
-      </c>
-      <c r="D9" s="11">
-        <v>2846.2500000000005</v>
-      </c>
-      <c r="E9" s="12">
-        <v>3362.6000000000004</v>
-      </c>
-      <c r="F9" s="11">
-        <v>3673.9500000000003</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="C9" s="18">
+        <v>2701.35</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2846.25</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3362.6</v>
+      </c>
+      <c r="F9" s="18">
+        <v>3763.95</v>
+      </c>
+      <c r="G9" s="18">
         <v>3964.05</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="20">
         <v>3808.8</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="18">
         <v>4255</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="18">
         <v>4478.1000000000004</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="8">
         <v>341.39999999999964</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="21">
         <v>2803.7000000000003</v>
       </c>
-      <c r="C10" s="11">
-        <v>3141.6200000000003</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="22">
+        <v>3141.8</v>
+      </c>
+      <c r="D10" s="22">
         <v>3309.7000000000003</v>
       </c>
-      <c r="E10" s="12">
-        <v>3909.6400000000003</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="23">
+        <v>3910</v>
+      </c>
+      <c r="F10" s="22">
         <v>4376.9000000000005</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="22">
         <v>4610.3500000000004</v>
       </c>
-      <c r="H10" s="13">
-        <v>4429.6200000000008</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="24">
+        <v>4429.8</v>
+      </c>
+      <c r="I10" s="22">
         <v>4948.4500000000007</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="22">
         <v>5207.2000000000007</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <v>523.39999999999964</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="21">
         <v>2803.7000000000003</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="22">
         <v>3141.8</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="22">
         <v>3309.7000000000003</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="23">
         <v>3910</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="22">
         <v>4376.9000000000005</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="22">
         <v>4610.3500000000004</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="24">
         <v>4429.8</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="22">
         <v>4948.4500000000007</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="22">
         <v>5207.2000000000007</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="8">
         <v>775.39999999999964</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="10"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="10"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="14"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="14"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="10"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="10"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="10"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="16"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="10"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="14"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="14"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="10"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="10"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="10"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="10"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="10"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="16"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="14"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="14"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="10"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="10"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="10"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="10"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="10"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="10"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="10"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="16"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="10"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="14"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="14"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="10"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="10"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="10"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="10"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="10"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="10"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="10"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="10"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="10"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="16"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="10"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="14"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="14"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="10"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="10"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="10"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="10"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="10"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="10"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="10"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="10"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="10"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="16"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="10"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="14"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="14"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="10"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="10"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="10"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="10"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="10"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="10"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="16"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568C7A99-4D32-344C-9310-4DF17FB02846}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -959,118 +1442,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="9">
         <v>0.52017923168515401</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="9">
         <v>0.52020116163762575</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="9">
         <v>0.52052793855141444</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="9">
         <v>0.52060404402354754</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="9">
         <v>0.5209986147840322</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="9">
         <v>0.52105321075219335</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="9">
         <v>0.52076803321224707</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="9">
         <v>0.52101234035774857</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="9">
         <v>0.52117106650699752</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="9">
         <v>0.26214984019552545</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="9">
         <v>0.26245218869528264</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <v>0.26266430464650836</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="9">
         <v>0.26263466505340066</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="9">
         <v>0.26272404818872519</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="9">
         <v>0.26287752223367111</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="9">
         <v>0.26294239750908144</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="9">
         <v>0.26303139904238076</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="9">
         <v>0.26299397665731294</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="9">
         <v>9.0454032712915966E-2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="9">
         <v>9.0260660150162902E-2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <v>9.051630875750527E-2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="9">
         <v>9.0449542778695588E-2</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>9.0757881039331731E-2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="9">
         <v>9.0660357539440378E-2</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="9">
         <v>9.0716139076284369E-2</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="9">
         <v>9.0734893134563316E-2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="9">
         <v>9.0649520098661285E-2</v>
       </c>
     </row>

--- a/files/sehassur_devis.xlsx
+++ b/files/sehassur_devis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/othmanbensouda/PycharmProjects/Agecap Automatic Forms/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A1046-BE53-4345-BB7F-A2384E39791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF7BC1-D787-574E-971A-ADB0B60BE196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
-    <t>20-24</t>
-  </si>
-  <si>
     <t>25-29</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>0-9</t>
   </si>
   <si>
-    <t>10-19</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t>deces</t>
+  </si>
+  <si>
+    <t>21-24</t>
+  </si>
+  <si>
+    <t>10-20</t>
   </si>
 </sst>
 </file>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,42 +583,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="26">
         <v>702.65</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B3" s="17">
         <v>481.85</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B4" s="17">
         <v>1877.95</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="17">
         <v>1877.95</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="17">
         <v>2151.65</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="17">
         <v>2151.65</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="17">
         <v>2411.5500000000002</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="17">
         <v>2411.5500000000002</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="21">
         <v>2803.7000000000003</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="21">
         <v>2803.7000000000003</v>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1443,31 +1443,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">

--- a/files/sehassur_devis.xlsx
+++ b/files/sehassur_devis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/othmanbensouda/PycharmProjects/Agecap Automatic Forms/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF7BC1-D787-574E-971A-ADB0B60BE196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0BABFF-D105-9148-9E27-3C5A836CFEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="primes" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
-  <si>
-    <t>25-29</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>30-34</t>
   </si>
@@ -96,10 +93,40 @@
     <t>deces</t>
   </si>
   <si>
-    <t>21-24</t>
-  </si>
-  <si>
-    <t>10-20</t>
+    <t>26-29</t>
+  </si>
+  <si>
+    <t>21-25</t>
+  </si>
+  <si>
+    <t>10-25</t>
+  </si>
+  <si>
+    <t>1 023,50</t>
+  </si>
+  <si>
+    <t>1 241,15</t>
+  </si>
+  <si>
+    <t>1 215,55</t>
+  </si>
+  <si>
+    <t>1 092,50</t>
+  </si>
+  <si>
+    <t>1 228,80</t>
+  </si>
+  <si>
+    <t>1 297,20</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>enfant</t>
+  </si>
+  <si>
+    <t>adulte</t>
   </si>
 </sst>
 </file>
@@ -189,30 +216,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -243,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,18 +284,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,407 +568,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="26">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="17">
         <v>702.65</v>
       </c>
-      <c r="C2" s="25">
+      <c r="D2" s="17">
         <v>790.05</v>
       </c>
-      <c r="D2" s="25">
+      <c r="E2" s="17">
         <v>833.75</v>
       </c>
-      <c r="E2" s="27">
-        <v>1023.5</v>
-      </c>
-      <c r="F2" s="25">
-        <v>1241.1500000000001</v>
-      </c>
-      <c r="G2" s="25">
-        <v>1215.55</v>
-      </c>
-      <c r="H2" s="28">
-        <v>1092.5</v>
-      </c>
-      <c r="I2" s="25">
-        <v>1228.8</v>
-      </c>
-      <c r="J2" s="25">
-        <v>1297.2</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="F2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="17">
         <v>481.85</v>
       </c>
-      <c r="C3" s="18">
+      <c r="D3" s="17">
         <v>542.98</v>
       </c>
-      <c r="D3" s="18">
+      <c r="E3" s="17">
         <v>572.20000000000005</v>
       </c>
-      <c r="E3" s="19">
+      <c r="F3" s="17">
         <v>703.01</v>
       </c>
-      <c r="F3" s="18">
+      <c r="G3" s="17">
         <v>790.05</v>
       </c>
-      <c r="G3" s="18">
+      <c r="H3" s="17">
         <v>833.75</v>
       </c>
-      <c r="H3" s="20">
+      <c r="I3" s="17">
         <v>750</v>
       </c>
-      <c r="I3" s="18">
+      <c r="J3" s="17">
         <v>844</v>
       </c>
-      <c r="J3" s="18">
+      <c r="K3" s="17">
         <v>890</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="17">
         <v>1877.95</v>
       </c>
-      <c r="C4" s="18">
+      <c r="D4" s="17">
         <v>2104.5</v>
       </c>
-      <c r="D4" s="18">
+      <c r="E4" s="17">
         <v>2217.1999999999998</v>
       </c>
-      <c r="E4" s="19">
+      <c r="F4" s="17">
         <v>2618.5500000000002</v>
       </c>
-      <c r="F4" s="18">
+      <c r="G4" s="17">
         <v>2931.35</v>
       </c>
-      <c r="G4" s="18">
+      <c r="H4" s="17">
         <v>3087.75</v>
       </c>
-      <c r="H4" s="20">
+      <c r="I4" s="17">
         <v>2967</v>
       </c>
-      <c r="I4" s="18">
+      <c r="J4" s="17">
         <v>3314.3</v>
       </c>
-      <c r="J4" s="18">
+      <c r="K4" s="17">
         <v>3487.95</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <v>137.39999999999964</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1877.95</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2104.5</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2217.1999999999998</v>
+      </c>
+      <c r="F5" s="17">
+        <v>2618.5500000000002</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2931.35</v>
+      </c>
+      <c r="H5" s="17">
+        <v>3087.75</v>
+      </c>
+      <c r="I5" s="17">
+        <v>2967</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3314.3</v>
+      </c>
+      <c r="K5" s="17">
+        <v>3487.95</v>
+      </c>
+      <c r="L5" s="8">
+        <v>144.39999999999964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17">
-        <v>1877.95</v>
-      </c>
-      <c r="C5" s="18">
-        <v>2104.5</v>
-      </c>
-      <c r="D5" s="18">
-        <v>2217.1999999999998</v>
-      </c>
-      <c r="E5" s="19">
-        <v>2618.5500000000002</v>
-      </c>
-      <c r="F5" s="18">
-        <v>2931.35</v>
-      </c>
-      <c r="G5" s="18">
-        <v>3087.75</v>
-      </c>
-      <c r="H5" s="20">
-        <v>2967</v>
-      </c>
-      <c r="I5" s="18">
-        <v>3314.3</v>
-      </c>
-      <c r="J5" s="18">
-        <v>3487.95</v>
-      </c>
-      <c r="K5" s="8">
-        <v>144.39999999999964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2151.65</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2410.4</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2540.35</v>
+      </c>
+      <c r="F6" s="17">
+        <v>3000.35</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3359.15</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3537.4</v>
+      </c>
+      <c r="I6" s="17">
+        <v>3399.4</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3797.3</v>
+      </c>
+      <c r="K6" s="17">
+        <v>3996.25</v>
+      </c>
+      <c r="L6" s="8">
+        <v>149.40000000000055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="17">
         <v>2151.65</v>
       </c>
-      <c r="C6" s="18">
+      <c r="D7" s="17">
         <v>2410.4</v>
       </c>
-      <c r="D6" s="18">
+      <c r="E7" s="17">
         <v>2540.35</v>
       </c>
-      <c r="E6" s="19">
+      <c r="F7" s="17">
         <v>3000.35</v>
       </c>
-      <c r="F6" s="18">
+      <c r="G7" s="17">
         <v>3359.15</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H7" s="17">
         <v>3537.4</v>
       </c>
-      <c r="H6" s="20">
+      <c r="I7" s="17">
         <v>3399.4</v>
       </c>
-      <c r="I6" s="18">
+      <c r="J7" s="17">
         <v>3797.3</v>
       </c>
-      <c r="J6" s="18">
+      <c r="K7" s="17">
         <v>3996.25</v>
       </c>
-      <c r="K6" s="8">
-        <v>149.40000000000055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="L7" s="8">
+        <v>184.30000000000018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17">
-        <v>2151.65</v>
-      </c>
-      <c r="C7" s="18">
-        <v>2410.4</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2540.35</v>
-      </c>
-      <c r="E7" s="19">
-        <v>3000.35</v>
-      </c>
-      <c r="F7" s="18">
-        <v>3359.15</v>
-      </c>
-      <c r="G7" s="18">
-        <v>3537.4</v>
-      </c>
-      <c r="H7" s="20">
-        <v>3399.4</v>
-      </c>
-      <c r="I7" s="18">
-        <v>3797.3</v>
-      </c>
-      <c r="J7" s="18">
-        <v>3996.25</v>
-      </c>
-      <c r="K7" s="8">
-        <v>184.30000000000018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2411.5500000000002</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2701.35</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2846.25</v>
+      </c>
+      <c r="F8" s="17">
+        <v>3362.6</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3763.95</v>
+      </c>
+      <c r="H8" s="17">
+        <v>3964.05</v>
+      </c>
+      <c r="I8" s="17">
+        <v>3808.8</v>
+      </c>
+      <c r="J8" s="17">
+        <v>4255</v>
+      </c>
+      <c r="K8" s="17">
+        <v>4478.1000000000004</v>
+      </c>
+      <c r="L8" s="8">
+        <v>241.39999999999964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="17">
         <v>2411.5500000000002</v>
       </c>
-      <c r="C8" s="18">
+      <c r="D9" s="17">
         <v>2701.35</v>
       </c>
-      <c r="D8" s="18">
+      <c r="E9" s="17">
         <v>2846.25</v>
       </c>
-      <c r="E8" s="19">
+      <c r="F9" s="17">
         <v>3362.6</v>
       </c>
-      <c r="F8" s="18">
+      <c r="G9" s="17">
         <v>3763.95</v>
       </c>
-      <c r="G8" s="18">
+      <c r="H9" s="17">
         <v>3964.05</v>
       </c>
-      <c r="H8" s="20">
+      <c r="I9" s="17">
         <v>3808.8</v>
       </c>
-      <c r="I8" s="18">
+      <c r="J9" s="17">
         <v>4255</v>
       </c>
-      <c r="J8" s="18">
+      <c r="K9" s="17">
         <v>4478.1000000000004</v>
       </c>
-      <c r="K8" s="8">
-        <v>241.39999999999964</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="L9" s="8">
+        <v>341.39999999999964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17">
-        <v>2411.5500000000002</v>
-      </c>
-      <c r="C9" s="18">
-        <v>2701.35</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2846.25</v>
-      </c>
-      <c r="E9" s="19">
-        <v>3362.6</v>
-      </c>
-      <c r="F9" s="18">
-        <v>3763.95</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3964.05</v>
-      </c>
-      <c r="H9" s="20">
-        <v>3808.8</v>
-      </c>
-      <c r="I9" s="18">
-        <v>4255</v>
-      </c>
-      <c r="J9" s="18">
-        <v>4478.1000000000004</v>
-      </c>
-      <c r="K9" s="8">
-        <v>341.39999999999964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2803.7</v>
+      </c>
+      <c r="D10" s="17">
+        <v>3141.8</v>
+      </c>
+      <c r="E10" s="17">
+        <v>3309.7</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3910</v>
+      </c>
+      <c r="G10" s="17">
+        <v>4376.8999999999996</v>
+      </c>
+      <c r="H10" s="17">
+        <v>4610.3500000000004</v>
+      </c>
+      <c r="I10" s="17">
+        <v>4429.8</v>
+      </c>
+      <c r="J10" s="17">
+        <v>4948.45</v>
+      </c>
+      <c r="K10" s="17">
+        <v>5207.2</v>
+      </c>
+      <c r="L10" s="8">
+        <v>523.39999999999964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="21">
-        <v>2803.7000000000003</v>
-      </c>
-      <c r="C10" s="22">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2803.7</v>
+      </c>
+      <c r="D11" s="17">
         <v>3141.8</v>
       </c>
-      <c r="D10" s="22">
-        <v>3309.7000000000003</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="E11" s="17">
+        <v>3309.7</v>
+      </c>
+      <c r="F11" s="17">
         <v>3910</v>
       </c>
-      <c r="F10" s="22">
-        <v>4376.9000000000005</v>
-      </c>
-      <c r="G10" s="22">
+      <c r="G11" s="17">
+        <v>4376.8999999999996</v>
+      </c>
+      <c r="H11" s="17">
         <v>4610.3500000000004</v>
       </c>
-      <c r="H10" s="24">
+      <c r="I11" s="17">
         <v>4429.8</v>
       </c>
-      <c r="I10" s="22">
-        <v>4948.4500000000007</v>
-      </c>
-      <c r="J10" s="22">
-        <v>5207.2000000000007</v>
-      </c>
-      <c r="K10" s="8">
-        <v>523.39999999999964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="21">
-        <v>2803.7000000000003</v>
-      </c>
-      <c r="C11" s="22">
-        <v>3141.8</v>
-      </c>
-      <c r="D11" s="22">
-        <v>3309.7000000000003</v>
-      </c>
-      <c r="E11" s="23">
-        <v>3910</v>
-      </c>
-      <c r="F11" s="22">
-        <v>4376.9000000000005</v>
-      </c>
-      <c r="G11" s="22">
-        <v>4610.3500000000004</v>
-      </c>
-      <c r="H11" s="24">
-        <v>4429.8</v>
-      </c>
-      <c r="I11" s="22">
-        <v>4948.4500000000007</v>
-      </c>
-      <c r="J11" s="22">
-        <v>5207.2000000000007</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="J11" s="17">
+        <v>4948.45</v>
+      </c>
+      <c r="K11" s="17">
+        <v>5207.2</v>
+      </c>
+      <c r="L11" s="8">
         <v>775.39999999999964</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="3"/>
+      <c r="B15"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -977,450 +1011,599 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="16"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="10"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="10"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="10"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="16"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="16"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="14"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="14"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="10"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="10"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="10"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="10"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="10"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="10"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="10"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="10"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="16"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="16"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="10"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="14"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="14"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="14"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="10"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="10"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="10"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="10"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="10"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="10"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="10"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="10"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="10"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="16"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="16"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="10"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="14"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="14"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="10"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="10"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="10"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="10"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="10"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="10"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="10"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="10"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="10"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="16"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="16"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="10"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="14"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="14"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="14"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="14"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="10"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="10"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="10"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="10"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="10"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="10"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="10"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="10"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="10"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="10"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="16"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="16"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" s="10"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" s="14"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" s="14"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="10"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" s="10"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" s="10"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" s="10"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" s="10"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" s="10"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" s="10"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" s="10"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="10"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" s="10"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="16"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" s="16"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" s="10"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="14"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" s="14"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="14"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" s="14"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" s="10"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" s="10"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" s="10"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="10"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" s="10"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" s="10"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="10"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="10"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="10"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="16"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="16"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1443,31 +1626,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
